--- a/biology/Zoologie/Cordonbleu_grenadin/Cordonbleu_grenadin.xlsx
+++ b/biology/Zoologie/Cordonbleu_grenadin/Cordonbleu_grenadin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uraeginthus granatinus
 Le Cordonbleu grenadin (Uraeginthus granatinus) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 11,5 cm de longueur. Il présente un dimorphisme sexuel.
 Le mâle a la majorité de son plumage châtain avec les zones auriculaires violettes, les ailes gris brun bordées de roux, le front et les sus-caudales bleus, le menton et la gorge noirs, la queue de même couleur mais bordée de bleu. Son bec est rouge violacé à la base et plus nettement rouge à l'extrémité.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Afrique du Sud, Angola, Botswana, Mozambique, Namibie, Zambie et Zimbabwe.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les milieux arides à arbustes épineux.
 </t>
@@ -608,7 +626,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en couples ou en petits groupes souvent associé au Cordonbleu d'Angola.
 </t>
@@ -639,7 +659,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce édifie son nid dans les arbustes épineux.
 </t>
@@ -670,7 +692,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cordonbleu grenadin a parfois été considéré comme appartenant au genre Granatina.
 </t>
@@ -701,7 +725,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 3 sous-espèces :
 Uraeginthus granatinus granatinus (Linnaeus) 1766 ;
